--- a/data/536/BPS/LMMM_historical.xlsx
+++ b/data/536/BPS/LMMM_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PM2"/>
+  <dimension ref="A1:PN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2507,6 +2507,11 @@
           <t>2021-08</t>
         </is>
       </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3739,69 +3744,68 @@
         <v>146.29</v>
       </c>
       <c r="OT2" t="n">
-        <v>147.75</v>
+        <v>150.52</v>
       </c>
       <c r="OU2" t="n">
-        <v>144.33</v>
-      </c>
-      <c r="OV2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="OW2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="OX2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="OY2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="OZ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="PA2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="PB2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="PC2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="PD2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="PE2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="PF2" t="inlineStr"/>
-      <c r="PG2" t="inlineStr"/>
-      <c r="PH2" t="inlineStr"/>
-      <c r="PI2" t="inlineStr"/>
-      <c r="PJ2" t="inlineStr"/>
-      <c r="PK2" t="inlineStr"/>
-      <c r="PL2" t="inlineStr"/>
-      <c r="PM2" t="inlineStr"/>
+        <v>145.48</v>
+      </c>
+      <c r="OV2" t="n">
+        <v>148.44</v>
+      </c>
+      <c r="OW2" t="n">
+        <v>122.94</v>
+      </c>
+      <c r="OX2" t="n">
+        <v>104.02</v>
+      </c>
+      <c r="OY2" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="OZ2" t="n">
+        <v>129.41</v>
+      </c>
+      <c r="PA2" t="n">
+        <v>129.06</v>
+      </c>
+      <c r="PB2" t="n">
+        <v>136.97</v>
+      </c>
+      <c r="PC2" t="n">
+        <v>138.67</v>
+      </c>
+      <c r="PD2" t="n">
+        <v>138.74</v>
+      </c>
+      <c r="PE2" t="n">
+        <v>138.81</v>
+      </c>
+      <c r="PF2" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="PG2" t="n">
+        <v>134.87</v>
+      </c>
+      <c r="PH2" t="n">
+        <v>149.29</v>
+      </c>
+      <c r="PI2" t="n">
+        <v>146.74</v>
+      </c>
+      <c r="PJ2" t="n">
+        <v>130.09</v>
+      </c>
+      <c r="PK2" t="n">
+        <v>147.46</v>
+      </c>
+      <c r="PL2" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="PM2" t="n">
+        <v>146.09</v>
+      </c>
+      <c r="PN2" t="n">
+        <v>146.99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
